--- a/linux-kernel/linux-kernel.xlsx
+++ b/linux-kernel/linux-kernel.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nb/Downloads/backup/linux-kernel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="465" windowWidth="19440" windowHeight="15600"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="19440" windowHeight="15600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LKD总览" sheetId="1" r:id="rId1"/>
     <sheet name="web-doc" sheetId="2" r:id="rId2"/>
     <sheet name="linux-code-emu" sheetId="3" r:id="rId3"/>
+    <sheet name="My测试程序" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>https://blog.csdn.net/maopig/article/details/77800124</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,12 +222,143 @@
     <t>qemu-system-i386 -m 1024M -kernel arch/i386/boot/bzImage -initrd rootfs.img</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>2 系统调用开发，遍历内核数据进行用户空间打印，在用户层开发应用进行调用测试</t>
+    <rPh sb="2" eb="3">
+      <t>xi tong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>diao yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kai fa</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bian li</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nei he</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>kong jian</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>da yin</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ceng</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>kai fa</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ying yong</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>diao yong</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ce shi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 驱动程序开发，应用程序调用接口进入等待队列，硬件资源好了后，唤醒用户等待，可以用软中断模拟</t>
+    <rPh sb="2" eb="3">
+      <t>qu dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng xu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kai fa</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ying yong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cheng xu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>diao yong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie kou</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jin ru</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>deng dai</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dui lie</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ying jian</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zi yuan</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>le</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>huan xing</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>deng dai</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ke yi</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ruan</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>zhong duan</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>mo ni</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +376,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -247,6 +385,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -254,12 +393,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -302,7 +443,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -316,6 +457,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2131,8 +2275,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4133851" y="7029450"/>
-          <a:ext cx="6946905" cy="4949848"/>
+          <a:off x="4083051" y="7496175"/>
+          <a:ext cx="6861180" cy="5273698"/>
           <a:chOff x="3028951" y="8308975"/>
           <a:chExt cx="6861180" cy="5273698"/>
         </a:xfrm>
@@ -2330,7 +2474,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2353,14 +2497,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2729,7 +2873,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2817,8 +2961,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17551400" y="16313150"/>
-          <a:ext cx="4591050" cy="2974975"/>
+          <a:off x="17335500" y="17399000"/>
+          <a:ext cx="4533900" cy="3175000"/>
           <a:chOff x="9467850" y="5629274"/>
           <a:chExt cx="4591050" cy="2981326"/>
         </a:xfrm>
@@ -2896,7 +3040,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2919,14 +3063,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2989,7 +3133,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3018,8 +3162,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1397001" y="838200"/>
-          <a:ext cx="1111248" cy="33943925"/>
+          <a:off x="1381126" y="885825"/>
+          <a:ext cx="1098548" cy="36210875"/>
           <a:chOff x="2955926" y="885825"/>
           <a:chExt cx="1098548" cy="6096007"/>
         </a:xfrm>
@@ -3733,7 +3877,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3764,8 +3908,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="22733000" y="15414625"/>
-          <a:ext cx="4987925" cy="4781550"/>
+          <a:off x="22453600" y="16433800"/>
+          <a:ext cx="4927600" cy="5105400"/>
           <a:chOff x="11049000" y="5000626"/>
           <a:chExt cx="4981575" cy="4791074"/>
         </a:xfrm>
@@ -3859,7 +4003,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3882,14 +4026,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3952,7 +4096,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3983,8 +4127,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="23069550" y="8928100"/>
-          <a:ext cx="5505450" cy="3924300"/>
+          <a:off x="22786975" y="9518650"/>
+          <a:ext cx="5435600" cy="4181475"/>
           <a:chOff x="15154275" y="13173075"/>
           <a:chExt cx="5514975" cy="3933825"/>
         </a:xfrm>
@@ -4193,7 +4337,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -4216,14 +4360,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4799,7 +4943,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5258,7 +5402,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5930,8 +6074,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="38200445" y="33056079"/>
-          <a:ext cx="2352675" cy="11858626"/>
+          <a:off x="37730545" y="35256354"/>
+          <a:ext cx="2324100" cy="12649201"/>
           <a:chOff x="37730545" y="16434954"/>
           <a:chExt cx="2324100" cy="12649201"/>
         </a:xfrm>
@@ -6126,8 +6270,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="31784925" y="9883775"/>
-          <a:ext cx="6235700" cy="3051175"/>
+          <a:off x="31394400" y="10541000"/>
+          <a:ext cx="6159500" cy="3251200"/>
           <a:chOff x="28956000" y="9877426"/>
           <a:chExt cx="6238875" cy="3047999"/>
         </a:xfrm>
@@ -6210,7 +6354,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -6233,14 +6377,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6304,7 +6448,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6590,7 +6734,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6857,7 +7001,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6888,8 +7032,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4768850" y="3052112"/>
-          <a:ext cx="2701925" cy="740389"/>
+          <a:off x="4711700" y="3252137"/>
+          <a:ext cx="2667000" cy="788014"/>
           <a:chOff x="1954004" y="2713389"/>
           <a:chExt cx="2707876" cy="734661"/>
         </a:xfrm>
@@ -7068,7 +7212,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7118,7 +7262,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7168,7 +7312,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7272,7 +7416,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7322,7 +7466,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7664,8 +7808,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="29132213" y="33105725"/>
-          <a:ext cx="2352674" cy="11833225"/>
+          <a:off x="28773438" y="35306000"/>
+          <a:ext cx="2324099" cy="12623800"/>
           <a:chOff x="28773438" y="16611600"/>
           <a:chExt cx="2324099" cy="12623800"/>
         </a:xfrm>
@@ -8236,7 +8380,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8294,7 +8438,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8402,8 +8546,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6442075" y="635000"/>
-          <a:ext cx="4048125" cy="2416175"/>
+          <a:off x="6362700" y="673100"/>
+          <a:ext cx="4000500" cy="2578100"/>
           <a:chOff x="3971925" y="704850"/>
           <a:chExt cx="4048125" cy="2419350"/>
         </a:xfrm>
@@ -8473,7 +8617,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8496,14 +8640,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -8717,7 +8861,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -9011,7 +9155,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -9311,7 +9455,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -9340,8 +9484,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3908425" y="27095450"/>
-          <a:ext cx="2727325" cy="1079500"/>
+          <a:off x="3860800" y="28895675"/>
+          <a:ext cx="2695575" cy="1155700"/>
           <a:chOff x="3765550" y="27000200"/>
           <a:chExt cx="2727325" cy="1079500"/>
         </a:xfrm>
@@ -10266,8 +10410,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14052550" y="29054425"/>
-          <a:ext cx="4991100" cy="3092450"/>
+          <a:off x="13881100" y="30988000"/>
+          <a:ext cx="4927600" cy="3302000"/>
           <a:chOff x="12598400" y="30010100"/>
           <a:chExt cx="4927600" cy="3302000"/>
         </a:xfrm>
@@ -12314,8 +12458,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5229225" y="24958675"/>
-          <a:ext cx="3343275" cy="1660525"/>
+          <a:off x="5165725" y="26616025"/>
+          <a:ext cx="3302000" cy="1774825"/>
           <a:chOff x="4127500" y="27520900"/>
           <a:chExt cx="3302000" cy="1765300"/>
         </a:xfrm>
@@ -12996,7 +13140,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13054,7 +13198,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13408,8 +13552,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13992225" y="19592925"/>
-          <a:ext cx="4438650" cy="3324225"/>
+          <a:off x="13820775" y="20897850"/>
+          <a:ext cx="4384675" cy="3543300"/>
           <a:chOff x="14068425" y="19383375"/>
           <a:chExt cx="4438650" cy="3324225"/>
         </a:xfrm>
@@ -13575,7 +13719,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -14166,8 +14310,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="31759525" y="24418925"/>
-          <a:ext cx="3524251" cy="2524125"/>
+          <a:off x="31369000" y="26038175"/>
+          <a:ext cx="3479801" cy="2695575"/>
           <a:chOff x="24841200" y="20459700"/>
           <a:chExt cx="3524251" cy="2533650"/>
         </a:xfrm>
@@ -14313,8 +14457,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25488899" y="24441150"/>
-          <a:ext cx="3282950" cy="2724151"/>
+          <a:off x="25174574" y="26069925"/>
+          <a:ext cx="3244850" cy="2905126"/>
           <a:chOff x="24784049" y="24917400"/>
           <a:chExt cx="3286125" cy="2724151"/>
         </a:xfrm>
@@ -15160,8 +15304,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25663524" y="27511368"/>
-          <a:ext cx="2952751" cy="1371571"/>
+          <a:off x="25349199" y="29340168"/>
+          <a:ext cx="2914651" cy="1466821"/>
           <a:chOff x="23631524" y="28046536"/>
           <a:chExt cx="2952751" cy="690389"/>
         </a:xfrm>
@@ -16660,7 +16804,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -16835,7 +16979,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -16892,7 +17036,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -16949,7 +17093,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17006,7 +17150,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17108,8 +17252,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22834600" y="13090525"/>
-          <a:ext cx="1196975" cy="1209675"/>
+          <a:off x="22555200" y="13957300"/>
+          <a:ext cx="1181100" cy="1295400"/>
           <a:chOff x="22275800" y="14300200"/>
           <a:chExt cx="1181100" cy="1295400"/>
         </a:xfrm>
@@ -17376,8 +17520,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18757900" y="11014075"/>
-          <a:ext cx="1777270" cy="1658191"/>
+          <a:off x="18529300" y="11747500"/>
+          <a:ext cx="1755045" cy="1762966"/>
           <a:chOff x="18719800" y="13322300"/>
           <a:chExt cx="1755045" cy="1762966"/>
         </a:xfrm>
@@ -17761,7 +17905,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17818,7 +17962,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17875,7 +18019,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17932,7 +18076,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17961,8 +18105,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18554694" y="13004800"/>
-          <a:ext cx="1094728" cy="2918666"/>
+          <a:off x="18326094" y="13871575"/>
+          <a:ext cx="1082028" cy="3109166"/>
           <a:chOff x="18872194" y="14392275"/>
           <a:chExt cx="1082028" cy="3109166"/>
         </a:xfrm>
@@ -18371,7 +18515,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18428,7 +18572,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18485,7 +18629,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18514,8 +18658,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21177250" y="11972925"/>
-          <a:ext cx="952500" cy="2439241"/>
+          <a:off x="20916900" y="12763500"/>
+          <a:ext cx="939800" cy="2601166"/>
           <a:chOff x="20599400" y="13131800"/>
           <a:chExt cx="939800" cy="2601166"/>
         </a:xfrm>
@@ -19006,7 +19150,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19063,7 +19207,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19120,7 +19264,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19149,8 +19293,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11328400" y="14014450"/>
-          <a:ext cx="1104900" cy="1412875"/>
+          <a:off x="11188700" y="14947900"/>
+          <a:ext cx="1092200" cy="1498600"/>
           <a:chOff x="16713200" y="10007600"/>
           <a:chExt cx="1092200" cy="1498600"/>
         </a:xfrm>
@@ -19441,8 +19585,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9731375" y="13506450"/>
-          <a:ext cx="1158875" cy="936625"/>
+          <a:off x="9613900" y="14401800"/>
+          <a:ext cx="1143000" cy="1003300"/>
           <a:chOff x="18567400" y="9956800"/>
           <a:chExt cx="1143000" cy="1003300"/>
         </a:xfrm>
@@ -19668,8 +19812,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8213725" y="15284450"/>
-          <a:ext cx="1158875" cy="768350"/>
+          <a:off x="8115300" y="16294100"/>
+          <a:ext cx="1143000" cy="825500"/>
           <a:chOff x="20320000" y="9613900"/>
           <a:chExt cx="1143000" cy="825500"/>
         </a:xfrm>
@@ -19901,8 +20045,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9756775" y="15001875"/>
-          <a:ext cx="1158875" cy="946150"/>
+          <a:off x="9639300" y="16002000"/>
+          <a:ext cx="1143000" cy="1003300"/>
           <a:chOff x="18567400" y="9956800"/>
           <a:chExt cx="1143000" cy="1003300"/>
         </a:xfrm>
@@ -20128,8 +20272,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8201025" y="12884150"/>
-          <a:ext cx="1158875" cy="777875"/>
+          <a:off x="8102600" y="13741400"/>
+          <a:ext cx="1143000" cy="825500"/>
           <a:chOff x="20320000" y="9613900"/>
           <a:chExt cx="1143000" cy="825500"/>
         </a:xfrm>
@@ -20361,8 +20505,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8213725" y="14090650"/>
-          <a:ext cx="1158875" cy="768350"/>
+          <a:off x="8115300" y="15024100"/>
+          <a:ext cx="1143000" cy="825500"/>
           <a:chOff x="20320000" y="9613900"/>
           <a:chExt cx="1143000" cy="825500"/>
         </a:xfrm>
@@ -20594,8 +20738,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8213725" y="16284575"/>
-          <a:ext cx="1158875" cy="768350"/>
+          <a:off x="8115300" y="17360900"/>
+          <a:ext cx="1143000" cy="825500"/>
           <a:chOff x="20320000" y="9613900"/>
           <a:chExt cx="1143000" cy="825500"/>
         </a:xfrm>
@@ -20827,8 +20971,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5991225" y="12985750"/>
-          <a:ext cx="1362075" cy="4105275"/>
+          <a:off x="5918200" y="13843000"/>
+          <a:ext cx="1346200" cy="4381500"/>
           <a:chOff x="4572000" y="14211300"/>
           <a:chExt cx="1346200" cy="4381500"/>
         </a:xfrm>
@@ -21154,7 +21298,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21211,7 +21355,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21268,7 +21412,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21407,7 +21551,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21463,7 +21607,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -23778,8 +23922,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16443325" y="42234909"/>
-          <a:ext cx="12432242" cy="3340099"/>
+          <a:off x="16243300" y="45044784"/>
+          <a:ext cx="12276667" cy="3568699"/>
           <a:chOff x="16192500" y="41200917"/>
           <a:chExt cx="12276667" cy="3471333"/>
         </a:xfrm>
@@ -26523,8 +26667,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16453908" y="38055550"/>
-          <a:ext cx="12411075" cy="3925358"/>
+          <a:off x="16253883" y="40589200"/>
+          <a:ext cx="12255500" cy="4182533"/>
           <a:chOff x="16203083" y="36872333"/>
           <a:chExt cx="12255500" cy="4064000"/>
         </a:xfrm>
@@ -28150,8 +28294,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16513628" y="46917429"/>
-          <a:ext cx="9816940" cy="8118207"/>
+          <a:off x="16310428" y="50041629"/>
+          <a:ext cx="9696290" cy="8661132"/>
           <a:chOff x="1422400" y="231589"/>
           <a:chExt cx="9868647" cy="8506011"/>
         </a:xfrm>
@@ -34180,8 +34324,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10467975" y="35242500"/>
-          <a:ext cx="6664063" cy="4933950"/>
+          <a:off x="10340975" y="37585650"/>
+          <a:ext cx="6581513" cy="5267325"/>
           <a:chOff x="10448925" y="56759475"/>
           <a:chExt cx="6664063" cy="4933950"/>
         </a:xfrm>
@@ -39722,21 +39866,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L1:AU1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK243" workbookViewId="0">
+    <sheetView topLeftCell="AK243" workbookViewId="0">
       <selection activeCell="BM231" sqref="BM231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="45" width="3.375" style="1"/>
-    <col min="46" max="46" width="3.375" style="3"/>
-    <col min="47" max="16384" width="3.375" style="1"/>
+    <col min="1" max="45" width="3.33203125" style="1"/>
+    <col min="46" max="46" width="3.33203125" style="3"/>
+    <col min="47" max="16384" width="3.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:47" s="4" customFormat="1">
+    <row r="1" spans="12:47" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
@@ -39753,96 +39897,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -39863,161 +40007,161 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -40027,4 +40171,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="4.5" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/linux-kernel/linux-kernel.xlsx
+++ b/linux-kernel/linux-kernel.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nb/Downloads/backup/linux-kernel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="19440" windowHeight="15600" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="465" windowWidth="19440" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="LKD总览" sheetId="1" r:id="rId1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>https://blog.csdn.net/maopig/article/details/77800124</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,9 +168,6 @@
     <t>在rootfs下执行</t>
   </si>
   <si>
-    <t>find . | cpio -o -H newc |gzip -9 &gt; ../rootfs.img</t>
-  </si>
-  <si>
     <t>可以执行任意CPU模拟机</t>
   </si>
   <si>
@@ -223,65 +215,149 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2 系统调用开发，遍历内核数据进行用户空间打印，在用户层开发应用进行调用测试</t>
-    <rPh sb="2" eb="3">
-      <t>xi tong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>diao yong</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>kai fa</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bian li</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>nei he</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>shu ju</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>jin xing</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>yong hu</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>kong jian</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>da yin</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>yong hu</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ceng</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>kai fa</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ying yong</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>jin xing</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>diao yong</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ce shi</t>
-    </rPh>
+    <t>find . | cpio -o -H newc |gzip -9 &gt; ../rootfs.img</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1 驱动程序开发，应用程序调用接口进入等待队列，硬件资源好了后，唤醒用户等待，可以用软中断模拟</t>
+    <t>建立busybox的linux内核启动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>make defconfig</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>make menuconfig</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单中setting - build config 中 Build BusyBox as a static binary(no shared libs)选上，进行全部静态编译。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是交叉编译选择gcc前缀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果交叉编译增加cross compiler prefix</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以增加编译选项additional CFLAGS LDFLAGS：例如gcc i386编译需要CFLAGS与LDFLAGS增加-m32选项</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>make</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>make install 生成_intall目录即基本文件系统</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5官网下载源码https://busybox.net/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6解压后进行配置和编译</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7建立rootfs</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>将_install下的文件都拷贝到2的rootfs目录中</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加基本目录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkdir proc mnt var tmp dev sys etc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建init，此时让它直接指向sh程序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ln -s bin/sh init</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建基本设备终端</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev目录下还必须有几个必要的设备console,null,tty,tty1,tty2,tty3,tty4：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd dev</t>
+  </si>
+  <si>
+    <t>mknod console c 5 1</t>
+  </si>
+  <si>
+    <t>mknod null c 1 3</t>
+  </si>
+  <si>
+    <t>mknod tty c 5 0</t>
+  </si>
+  <si>
+    <t>mknod tty1 c 4 1</t>
+  </si>
+  <si>
+    <t>mknod tty2 c 4 2</t>
+  </si>
+  <si>
+    <t>mknod tty3 c 4 3</t>
+  </si>
+  <si>
+    <t>mknod tty4 c 4 4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF373737"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这些</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF373737"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>tty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF373737"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就是和用户交互的终端。</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照2方法创建rootfs.img</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8重新按照4启动基本执行busybox了</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 驱动程序开发，应用程序调用接口进入等待队列，硬件资源好了后，唤醒用户等待，可以用软中断模拟</t>
     <rPh sb="2" eb="3">
       <t>qu dong</t>
     </rPh>
@@ -353,12 +429,74 @@
     </rPh>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>3 系统调用开发，遍历内核数据进行用户空间打印，在用户层开发应用进行调用测试</t>
+    <rPh sb="2" eb="3">
+      <t>xi tong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>diao yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>kai fa</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bian li</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nei he</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>kong jian</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>da yin</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ceng</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>kai fa</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ying yong</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>diao yong</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ce shi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 完成busybox在内核启动时启动sh程序，终端可输入</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +542,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF373737"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF373737"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -443,7 +601,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -460,6 +618,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2275,8 +2439,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4083051" y="7496175"/>
-          <a:ext cx="6861180" cy="5273698"/>
+          <a:off x="4133851" y="7029450"/>
+          <a:ext cx="6946905" cy="4949848"/>
           <a:chOff x="3028951" y="8308975"/>
           <a:chExt cx="6861180" cy="5273698"/>
         </a:xfrm>
@@ -2474,7 +2638,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2497,14 +2661,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2873,7 +3037,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -2961,8 +3125,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17335500" y="17399000"/>
-          <a:ext cx="4533900" cy="3175000"/>
+          <a:off x="17551400" y="16313150"/>
+          <a:ext cx="4591050" cy="2974975"/>
           <a:chOff x="9467850" y="5629274"/>
           <a:chExt cx="4591050" cy="2981326"/>
         </a:xfrm>
@@ -3040,7 +3204,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3063,14 +3227,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3133,7 +3297,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3162,8 +3326,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1381126" y="885825"/>
-          <a:ext cx="1098548" cy="36210875"/>
+          <a:off x="1397001" y="838200"/>
+          <a:ext cx="1111248" cy="33943925"/>
           <a:chOff x="2955926" y="885825"/>
           <a:chExt cx="1098548" cy="6096007"/>
         </a:xfrm>
@@ -3877,7 +4041,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3908,8 +4072,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="22453600" y="16433800"/>
-          <a:ext cx="4927600" cy="5105400"/>
+          <a:off x="22733000" y="15414625"/>
+          <a:ext cx="4987925" cy="4781550"/>
           <a:chOff x="11049000" y="5000626"/>
           <a:chExt cx="4981575" cy="4791074"/>
         </a:xfrm>
@@ -4003,7 +4167,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -4026,14 +4190,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4096,7 +4260,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -4127,8 +4291,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="22786975" y="9518650"/>
-          <a:ext cx="5435600" cy="4181475"/>
+          <a:off x="23069550" y="8928100"/>
+          <a:ext cx="5505450" cy="3924300"/>
           <a:chOff x="15154275" y="13173075"/>
           <a:chExt cx="5514975" cy="3933825"/>
         </a:xfrm>
@@ -4337,7 +4501,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -4360,14 +4524,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4943,7 +5107,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5402,7 +5566,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6074,8 +6238,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="37730545" y="35256354"/>
-          <a:ext cx="2324100" cy="12649201"/>
+          <a:off x="38200445" y="33056079"/>
+          <a:ext cx="2352675" cy="11858626"/>
           <a:chOff x="37730545" y="16434954"/>
           <a:chExt cx="2324100" cy="12649201"/>
         </a:xfrm>
@@ -6270,8 +6434,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="31394400" y="10541000"/>
-          <a:ext cx="6159500" cy="3251200"/>
+          <a:off x="31784925" y="9883775"/>
+          <a:ext cx="6235700" cy="3051175"/>
           <a:chOff x="28956000" y="9877426"/>
           <a:chExt cx="6238875" cy="3047999"/>
         </a:xfrm>
@@ -6354,7 +6518,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -6377,14 +6541,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6448,7 +6612,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6734,7 +6898,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -7001,7 +7165,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -7032,8 +7196,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4711700" y="3252137"/>
-          <a:ext cx="2667000" cy="788014"/>
+          <a:off x="4768850" y="3052112"/>
+          <a:ext cx="2701925" cy="740389"/>
           <a:chOff x="1954004" y="2713389"/>
           <a:chExt cx="2707876" cy="734661"/>
         </a:xfrm>
@@ -7212,7 +7376,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7262,7 +7426,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7312,7 +7476,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7416,7 +7580,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7466,7 +7630,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7808,8 +7972,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="28773438" y="35306000"/>
-          <a:ext cx="2324099" cy="12623800"/>
+          <a:off x="29132213" y="33105725"/>
+          <a:ext cx="2352674" cy="11833225"/>
           <a:chOff x="28773438" y="16611600"/>
           <a:chExt cx="2324099" cy="12623800"/>
         </a:xfrm>
@@ -8380,7 +8544,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8438,7 +8602,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8546,8 +8710,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6362700" y="673100"/>
-          <a:ext cx="4000500" cy="2578100"/>
+          <a:off x="6442075" y="635000"/>
+          <a:ext cx="4048125" cy="2416175"/>
           <a:chOff x="3971925" y="704850"/>
           <a:chExt cx="4048125" cy="2419350"/>
         </a:xfrm>
@@ -8617,7 +8781,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8640,14 +8804,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -8861,7 +9025,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -9155,7 +9319,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -9455,7 +9619,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -9484,8 +9648,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3860800" y="28895675"/>
-          <a:ext cx="2695575" cy="1155700"/>
+          <a:off x="3908425" y="27095450"/>
+          <a:ext cx="2727325" cy="1079500"/>
           <a:chOff x="3765550" y="27000200"/>
           <a:chExt cx="2727325" cy="1079500"/>
         </a:xfrm>
@@ -10410,8 +10574,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13881100" y="30988000"/>
-          <a:ext cx="4927600" cy="3302000"/>
+          <a:off x="14052550" y="29054425"/>
+          <a:ext cx="4991100" cy="3092450"/>
           <a:chOff x="12598400" y="30010100"/>
           <a:chExt cx="4927600" cy="3302000"/>
         </a:xfrm>
@@ -12458,8 +12622,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5165725" y="26616025"/>
-          <a:ext cx="3302000" cy="1774825"/>
+          <a:off x="5229225" y="24958675"/>
+          <a:ext cx="3343275" cy="1660525"/>
           <a:chOff x="4127500" y="27520900"/>
           <a:chExt cx="3302000" cy="1765300"/>
         </a:xfrm>
@@ -13140,7 +13304,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13198,7 +13362,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13552,8 +13716,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13820775" y="20897850"/>
-          <a:ext cx="4384675" cy="3543300"/>
+          <a:off x="13992225" y="19592925"/>
+          <a:ext cx="4438650" cy="3324225"/>
           <a:chOff x="14068425" y="19383375"/>
           <a:chExt cx="4438650" cy="3324225"/>
         </a:xfrm>
@@ -13719,7 +13883,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -14310,8 +14474,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="31369000" y="26038175"/>
-          <a:ext cx="3479801" cy="2695575"/>
+          <a:off x="31759525" y="24418925"/>
+          <a:ext cx="3524251" cy="2524125"/>
           <a:chOff x="24841200" y="20459700"/>
           <a:chExt cx="3524251" cy="2533650"/>
         </a:xfrm>
@@ -14457,8 +14621,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25174574" y="26069925"/>
-          <a:ext cx="3244850" cy="2905126"/>
+          <a:off x="25488899" y="24441150"/>
+          <a:ext cx="3282950" cy="2724151"/>
           <a:chOff x="24784049" y="24917400"/>
           <a:chExt cx="3286125" cy="2724151"/>
         </a:xfrm>
@@ -15304,8 +15468,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="25349199" y="29340168"/>
-          <a:ext cx="2914651" cy="1466821"/>
+          <a:off x="25663524" y="27511368"/>
+          <a:ext cx="2952751" cy="1371571"/>
           <a:chOff x="23631524" y="28046536"/>
           <a:chExt cx="2952751" cy="690389"/>
         </a:xfrm>
@@ -16804,7 +16968,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -16979,7 +17143,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17036,7 +17200,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17093,7 +17257,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17150,7 +17314,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17252,8 +17416,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="22555200" y="13957300"/>
-          <a:ext cx="1181100" cy="1295400"/>
+          <a:off x="22834600" y="13090525"/>
+          <a:ext cx="1196975" cy="1209675"/>
           <a:chOff x="22275800" y="14300200"/>
           <a:chExt cx="1181100" cy="1295400"/>
         </a:xfrm>
@@ -17520,8 +17684,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18529300" y="11747500"/>
-          <a:ext cx="1755045" cy="1762966"/>
+          <a:off x="18757900" y="11014075"/>
+          <a:ext cx="1777270" cy="1658191"/>
           <a:chOff x="18719800" y="13322300"/>
           <a:chExt cx="1755045" cy="1762966"/>
         </a:xfrm>
@@ -17905,7 +18069,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17962,7 +18126,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18019,7 +18183,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18076,7 +18240,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18105,8 +18269,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18326094" y="13871575"/>
-          <a:ext cx="1082028" cy="3109166"/>
+          <a:off x="18554694" y="13004800"/>
+          <a:ext cx="1094728" cy="2918666"/>
           <a:chOff x="18872194" y="14392275"/>
           <a:chExt cx="1082028" cy="3109166"/>
         </a:xfrm>
@@ -18515,7 +18679,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18572,7 +18736,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18629,7 +18793,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18658,8 +18822,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20916900" y="12763500"/>
-          <a:ext cx="939800" cy="2601166"/>
+          <a:off x="21177250" y="11972925"/>
+          <a:ext cx="952500" cy="2439241"/>
           <a:chOff x="20599400" y="13131800"/>
           <a:chExt cx="939800" cy="2601166"/>
         </a:xfrm>
@@ -19150,7 +19314,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19207,7 +19371,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19264,7 +19428,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19293,8 +19457,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11188700" y="14947900"/>
-          <a:ext cx="1092200" cy="1498600"/>
+          <a:off x="11328400" y="14014450"/>
+          <a:ext cx="1104900" cy="1412875"/>
           <a:chOff x="16713200" y="10007600"/>
           <a:chExt cx="1092200" cy="1498600"/>
         </a:xfrm>
@@ -19585,8 +19749,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9613900" y="14401800"/>
-          <a:ext cx="1143000" cy="1003300"/>
+          <a:off x="9731375" y="13506450"/>
+          <a:ext cx="1158875" cy="936625"/>
           <a:chOff x="18567400" y="9956800"/>
           <a:chExt cx="1143000" cy="1003300"/>
         </a:xfrm>
@@ -19812,8 +19976,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8115300" y="16294100"/>
-          <a:ext cx="1143000" cy="825500"/>
+          <a:off x="8213725" y="15284450"/>
+          <a:ext cx="1158875" cy="768350"/>
           <a:chOff x="20320000" y="9613900"/>
           <a:chExt cx="1143000" cy="825500"/>
         </a:xfrm>
@@ -20045,8 +20209,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9639300" y="16002000"/>
-          <a:ext cx="1143000" cy="1003300"/>
+          <a:off x="9756775" y="15001875"/>
+          <a:ext cx="1158875" cy="946150"/>
           <a:chOff x="18567400" y="9956800"/>
           <a:chExt cx="1143000" cy="1003300"/>
         </a:xfrm>
@@ -20272,8 +20436,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8102600" y="13741400"/>
-          <a:ext cx="1143000" cy="825500"/>
+          <a:off x="8201025" y="12884150"/>
+          <a:ext cx="1158875" cy="777875"/>
           <a:chOff x="20320000" y="9613900"/>
           <a:chExt cx="1143000" cy="825500"/>
         </a:xfrm>
@@ -20505,8 +20669,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8115300" y="15024100"/>
-          <a:ext cx="1143000" cy="825500"/>
+          <a:off x="8213725" y="14090650"/>
+          <a:ext cx="1158875" cy="768350"/>
           <a:chOff x="20320000" y="9613900"/>
           <a:chExt cx="1143000" cy="825500"/>
         </a:xfrm>
@@ -20738,8 +20902,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8115300" y="17360900"/>
-          <a:ext cx="1143000" cy="825500"/>
+          <a:off x="8213725" y="16284575"/>
+          <a:ext cx="1158875" cy="768350"/>
           <a:chOff x="20320000" y="9613900"/>
           <a:chExt cx="1143000" cy="825500"/>
         </a:xfrm>
@@ -20971,8 +21135,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5918200" y="13843000"/>
-          <a:ext cx="1346200" cy="4381500"/>
+          <a:off x="5991225" y="12985750"/>
+          <a:ext cx="1362075" cy="4105275"/>
           <a:chOff x="4572000" y="14211300"/>
           <a:chExt cx="1346200" cy="4381500"/>
         </a:xfrm>
@@ -21298,7 +21462,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21355,7 +21519,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21412,7 +21576,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21551,7 +21715,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21607,7 +21771,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -23922,8 +24086,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16243300" y="45044784"/>
-          <a:ext cx="12276667" cy="3568699"/>
+          <a:off x="16443325" y="42234909"/>
+          <a:ext cx="12432242" cy="3340099"/>
           <a:chOff x="16192500" y="41200917"/>
           <a:chExt cx="12276667" cy="3471333"/>
         </a:xfrm>
@@ -26667,8 +26831,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16253883" y="40589200"/>
-          <a:ext cx="12255500" cy="4182533"/>
+          <a:off x="16453908" y="38055550"/>
+          <a:ext cx="12411075" cy="3925358"/>
           <a:chOff x="16203083" y="36872333"/>
           <a:chExt cx="12255500" cy="4064000"/>
         </a:xfrm>
@@ -28294,8 +28458,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16310428" y="50041629"/>
-          <a:ext cx="9696290" cy="8661132"/>
+          <a:off x="16513628" y="46917429"/>
+          <a:ext cx="9816940" cy="8118207"/>
           <a:chOff x="1422400" y="231589"/>
           <a:chExt cx="9868647" cy="8506011"/>
         </a:xfrm>
@@ -34324,8 +34488,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10340975" y="37585650"/>
-          <a:ext cx="6581513" cy="5267325"/>
+          <a:off x="10467975" y="35242500"/>
+          <a:ext cx="6664063" cy="4933950"/>
           <a:chOff x="10448925" y="56759475"/>
           <a:chExt cx="6664063" cy="4933950"/>
         </a:xfrm>
@@ -39866,21 +40030,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="L1:AU1"/>
   <sheetViews>
-    <sheetView topLeftCell="AK243" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AK243" workbookViewId="0">
       <selection activeCell="BM231" sqref="BM231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="45" width="3.33203125" style="1"/>
-    <col min="46" max="46" width="3.33203125" style="3"/>
-    <col min="47" max="16384" width="3.33203125" style="1"/>
+    <col min="1" max="45" width="3.375" style="1"/>
+    <col min="46" max="46" width="3.375" style="3"/>
+    <col min="47" max="16384" width="3.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:47" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="12:47" s="4" customFormat="1">
       <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
@@ -39897,98 +40061,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -40007,163 +40221,263 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>34</v>
+    <row r="27" spans="1:3">
+      <c r="A27" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>35</v>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>48</v>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>36</v>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>37</v>
+    <row r="31" spans="1:3">
+      <c r="B31" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>38</v>
+    <row r="32" spans="1:3">
+      <c r="C32" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>39</v>
+    <row r="33" spans="1:4">
+      <c r="D33" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>40</v>
+    <row r="34" spans="1:4">
+      <c r="D34" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>41</v>
+    <row r="35" spans="1:4">
+      <c r="D35" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>42</v>
+    <row r="36" spans="1:4">
+      <c r="B36" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>43</v>
+    <row r="37" spans="1:4">
+      <c r="B37" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>44</v>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>45</v>
+    <row r="39" spans="1:4">
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="C46" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="C47" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="C48" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="C49" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="C50" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="C51" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="C52" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="C53" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="C54" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -40174,30 +40488,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="4.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>50</v>
+    <row r="1" spans="2:2">
+      <c r="B1" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>49</v>
+    <row r="2" spans="2:2">
+      <c r="B2" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/linux-kernel/linux-kernel.xlsx
+++ b/linux-kernel/linux-kernel.xlsx
@@ -2638,7 +2638,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2661,14 +2661,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3037,7 +3037,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3204,7 +3204,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3227,14 +3227,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3297,7 +3297,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -4041,7 +4041,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -4167,7 +4167,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -4190,14 +4190,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4260,7 +4260,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -4501,7 +4501,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -4524,14 +4524,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5107,7 +5107,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5566,7 +5566,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6518,7 +6518,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -6541,14 +6541,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6612,7 +6612,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6898,7 +6898,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -7165,7 +7165,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -7376,7 +7376,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7426,7 +7426,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7476,7 +7476,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7580,7 +7580,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7630,7 +7630,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8544,7 +8544,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8602,7 +8602,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8781,7 +8781,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8804,14 +8804,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -9025,7 +9025,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -9319,7 +9319,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -9619,7 +9619,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -11295,6 +11295,17 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
             <a:t>inode</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900"/>
+            <a:t>-dcount</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>引用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="900"/>
@@ -13304,7 +13315,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13362,7 +13373,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13883,7 +13894,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -16968,7 +16979,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17143,7 +17154,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17200,7 +17211,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17257,7 +17268,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17314,7 +17325,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18069,7 +18080,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18126,7 +18137,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18183,7 +18194,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18240,7 +18251,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18679,7 +18690,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18736,7 +18747,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18793,7 +18804,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19314,7 +19325,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19371,7 +19382,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19428,7 +19439,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21462,7 +21473,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21519,7 +21530,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21576,7 +21587,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21715,7 +21726,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21771,7 +21782,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -40033,8 +40044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="L1:AU1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK243" workbookViewId="0">
-      <selection activeCell="BM231" sqref="BM231"/>
+    <sheetView tabSelected="1" topLeftCell="AM183" workbookViewId="0">
+      <selection activeCell="BF204" sqref="BF204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="11.25"/>

--- a/linux-kernel/linux-kernel.xlsx
+++ b/linux-kernel/linux-kernel.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="465" windowWidth="19440" windowHeight="15600"/>
+    <workbookView xWindow="480" yWindow="465" windowWidth="19440" windowHeight="15600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LKD总览" sheetId="1" r:id="rId1"/>
     <sheet name="web-doc" sheetId="2" r:id="rId2"/>
-    <sheet name="linux-code-emu" sheetId="3" r:id="rId3"/>
-    <sheet name="My测试程序" sheetId="4" r:id="rId4"/>
+    <sheet name="linux-code-emu-busybox" sheetId="3" r:id="rId3"/>
+    <sheet name="syscall" sheetId="5" r:id="rId4"/>
+    <sheet name="My测试程序" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="142">
   <si>
     <t>https://blog.csdn.net/maopig/article/details/77800124</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,73 +431,212 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3 系统调用开发，遍历内核数据进行用户空间打印，在用户层开发应用进行调用测试</t>
-    <rPh sb="2" eb="3">
-      <t>xi tong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>diao yong</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>kai fa</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bian li</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>nei he</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>shu ju</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>jin xing</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>yong hu</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>kong jian</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>da yin</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>yong hu</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ceng</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>kai fa</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ying yong</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>jin xing</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>diao yong</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ce shi</t>
-    </rPh>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>x86架构上加自己的系统调用</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>1 完成busybox在内核启动时启动sh程序，终端可输入</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>/home/w/Downloads/linux-kernel/linux-2.6/kernel/sys.c</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SYSCALL_DEFINE4(mysyscall, </t>
+  </si>
+  <si>
+    <t>unsigned long *, param_in,</t>
+  </si>
+  <si>
+    <t>unsigned long, param_in_len,</t>
+  </si>
+  <si>
+    <t>unsigned long *, param_out,</t>
+  </si>
+  <si>
+    <t>unsigned long, param_out_len)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>printk(KERN_ALERT "SYSCALL_DEFINE4 mysyscall");</t>
+  </si>
+  <si>
+    <t>return 0;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>/home/w/Downloads/linux-kernel/linux-2.6/arch/x86/include/generated/uapi/asm/unistd_32.h</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define __NR_mysyscall 401</t>
+  </si>
+  <si>
+    <t>/home/w/Downloads/linux-kernel/linux-2.6/arch/x86/entry/syscalls/syscall_32.tbl</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在内核程序中添加系统调用</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 添加系统调用实现代码</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 定义系统调用号</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 注册到内核</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>i386</t>
+  </si>
+  <si>
+    <t>mysyscall</t>
+  </si>
+  <si>
+    <t>sys_mysyscall</t>
+  </si>
+  <si>
+    <t>__ia32_sys_mysyscall</t>
+  </si>
+  <si>
+    <t>应用程序调用</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.cpp</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include "stdio.h"</t>
+  </si>
+  <si>
+    <t>#include &lt;unistd.h&gt;</t>
+  </si>
+  <si>
+    <t>#include &lt;sys/syscall.h&gt;</t>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;</t>
+  </si>
+  <si>
+    <t>//_syscall0(int,mysyscall)</t>
+  </si>
+  <si>
+    <t>int main(int argc, char *argv[])</t>
+  </si>
+  <si>
+    <t>printf("this is first line of app\n");</t>
+  </si>
+  <si>
+    <t>// long __res;</t>
+  </si>
+  <si>
+    <t>// __asm__ volatile ("int $0x80" : "=a" (__res) : "0" (__NR_fork));</t>
+  </si>
+  <si>
+    <t>long res = syscall(20);</t>
+  </si>
+  <si>
+    <t>printf("pid:%d\n", res);</t>
+  </si>
+  <si>
+    <t>res = syscall(401, "a", 1, "b", 1);</t>
+  </si>
+  <si>
+    <t>printf("smysyscall:%d\n", res);</t>
+  </si>
+  <si>
+    <t>Makefile</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>testproc:main.cpp</t>
+  </si>
+  <si>
+    <t>g++ -static -m32 main.cpp -o testproc</t>
+  </si>
+  <si>
+    <t>执行结果：</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印：SYSCALL_DEFINE4 mysyscall</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>printk(KERN_ALERT "  param_in_len=%d", param_in_len);</t>
+  </si>
+  <si>
+    <t>char* kernelbuf = kmalloc(param_in_len+1, GFP_KERNEL);</t>
+  </si>
+  <si>
+    <t>*(kernelbuf+param_in_len) = 0;</t>
+  </si>
+  <si>
+    <t>printk(KERN_ALERT "  kmalloc kernelbuf=%p", kernelbuf);</t>
+  </si>
+  <si>
+    <t>if (copy_from_user(kernelbuf, param_in, param_in_len))</t>
+  </si>
+  <si>
+    <t>printk(KERN_ALERT "  copy_from_user failed!");</t>
+  </si>
+  <si>
+    <t>return -EFAULT;</t>
+  </si>
+  <si>
+    <t>if (0 != param_out)</t>
+  </si>
+  <si>
+    <t>if (copy_to_user(param_out, "result", param_out_len&gt;strlen("result")?7:param_out_len))</t>
+  </si>
+  <si>
+    <t>printk(KERN_ALERT "  copy_to_user failed!");</t>
+  </si>
+  <si>
+    <t>printk(KERN_ALERT "param_in:%s\n", kernelbuf);</t>
+  </si>
+  <si>
+    <t>printk(KERN_ALERT "param_out:%s\n", "result");</t>
+  </si>
+  <si>
+    <t>kfree(kernelbuf);</t>
+  </si>
+  <si>
+    <t>struct task_struct* cur = current;</t>
+  </si>
+  <si>
+    <t>int pid = cur-&gt;pid;</t>
+  </si>
+  <si>
+    <t>printk(KERN_ALERT "pid:%d\n", pid);</t>
+  </si>
+  <si>
+    <t>int cpu = cur-&gt;cpu;</t>
+  </si>
+  <si>
+    <t>printk(KERN_ALERT "cpu:%d\n", cpu);</t>
+  </si>
+  <si>
+    <t>扩展系统调用：从用户空间拷贝到内核 再拷贝到用户输出 获取进程信息， 当然也可以通过当前进程遍历所有进程</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统调用开发，遍历内核数据进行用户空间打印，在用户层开发应用进行调用测试</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,8 +702,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,6 +740,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,7 +768,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -624,6 +791,15 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2638,7 +2814,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2661,14 +2837,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3037,7 +3213,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -3204,7 +3380,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3227,14 +3403,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3297,7 +3473,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -4041,7 +4217,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -4167,7 +4343,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -4190,14 +4366,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4260,7 +4436,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -4501,7 +4677,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -4524,14 +4700,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5107,7 +5283,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -5566,7 +5742,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6518,7 +6694,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -6541,14 +6717,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6612,7 +6788,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -6898,7 +7074,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -7165,7 +7341,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -7376,7 +7552,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7426,7 +7602,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7476,7 +7652,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7580,7 +7756,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -7630,7 +7806,7 @@
             </a:effectLst>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+                <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -8544,7 +8720,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8602,7 +8778,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -8781,7 +8957,7 @@
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+                <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8804,14 +8980,14 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a:solidFill>
                   <a:srgbClr val="FFFFFF"/>
                 </a:solidFill>
               </a14:hiddenFill>
             </a:ext>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -9025,7 +9201,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -9319,7 +9495,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -9619,7 +9795,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13315,7 +13491,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13373,7 +13549,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -13894,7 +14070,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -16979,7 +17155,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17154,7 +17330,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17211,7 +17387,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17268,7 +17444,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -17325,7 +17501,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18080,7 +18256,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18137,7 +18313,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18194,7 +18370,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18251,7 +18427,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18690,7 +18866,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18747,7 +18923,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -18804,7 +18980,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19325,7 +19501,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19382,7 +19558,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -19439,7 +19615,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21473,7 +21649,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21530,7 +21706,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21587,7 +21763,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21726,7 +21902,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -21782,7 +21958,7 @@
         </a:effectLst>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:noFill/>
             </a14:hiddenFill>
           </a:ext>
@@ -40044,7 +40220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="L1:AU1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM183" workbookViewId="0">
+    <sheetView topLeftCell="AM183" workbookViewId="0">
       <selection activeCell="BF204" sqref="BF204"/>
     </sheetView>
   </sheetViews>
@@ -40235,7 +40411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -40500,10 +40676,435 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:B3"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.75" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="E10" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="D14" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="E15" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="D17" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="C18" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="C19" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="D20" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="C21" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="C22" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="D23" s="8">
+        <v>401</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="C27" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="D28" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="D29" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="D30" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="D31" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="E37" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="E40" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="E41" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="E43" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="E44" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="E46" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="E47" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="E48" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="D49" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="C51" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="D52" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="E53" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="C55" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="D56" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" s="10" customFormat="1"/>
+    <row r="63" spans="2:5">
+      <c r="B63" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6">
+      <c r="D65" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6">
+      <c r="E66" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6">
+      <c r="E67" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6">
+      <c r="E68" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6">
+      <c r="E69" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6">
+      <c r="D70" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6">
+      <c r="E71" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6">
+      <c r="E72" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6">
+      <c r="E73" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6">
+      <c r="E74" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6">
+      <c r="E76" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6">
+      <c r="E77" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6">
+      <c r="E78" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6">
+      <c r="F79" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6">
+      <c r="F80" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7">
+      <c r="E81" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7">
+      <c r="E82" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7">
+      <c r="E83" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7">
+      <c r="F84" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7">
+      <c r="F85" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7">
+      <c r="G86" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7">
+      <c r="G87" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7">
+      <c r="F88" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7">
+      <c r="E89" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7">
+      <c r="E91" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7">
+      <c r="E92" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7">
+      <c r="E94" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="5:7">
+      <c r="E96" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5">
+      <c r="E97" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5">
+      <c r="E98" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5">
+      <c r="E99" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5">
+      <c r="E100" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5">
+      <c r="E102" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5">
+      <c r="D103" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="13.5"/>
@@ -40511,19 +41112,9 @@
     <col min="1" max="16384" width="4.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="2" spans="2:2">
       <c r="B2" s="5" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
